--- a/DAT/input/corp_bond_portfolio.xlsx
+++ b/DAT/input/corp_bond_portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{78ED3200-74A1-44DD-AD16-D4E3F06A61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2FB3D0D-0943-4BD3-861E-530C4693F2BE}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{78ED3200-74A1-44DD-AD16-D4E3F06A61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34647251-048F-4983-9C25-793BA18CE2B6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,7 +1808,7 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1870,7 +1870,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -1932,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1994,7 +1994,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -2056,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2118,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -2180,7 +2180,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2242,7 +2242,7 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -2304,7 +2304,7 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2366,7 +2366,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2428,7 +2428,7 @@
         <v>34</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -2490,7 +2490,7 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2552,7 +2552,7 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -2614,7 +2614,7 @@
         <v>37</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2676,7 +2676,7 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2738,7 +2738,7 @@
         <v>39</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2800,7 +2800,7 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -2862,7 +2862,7 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -2924,7 +2924,7 @@
         <v>42</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2986,7 +2986,7 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -3048,7 +3048,7 @@
         <v>44</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -3110,7 +3110,7 @@
         <v>45</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -3172,7 +3172,7 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3234,7 +3234,7 @@
         <v>47</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -3296,7 +3296,7 @@
         <v>48</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -3358,7 +3358,7 @@
         <v>49</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -3420,7 +3420,7 @@
         <v>50</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -3482,7 +3482,7 @@
         <v>51</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -3544,7 +3544,7 @@
         <v>52</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3606,7 +3606,7 @@
         <v>53</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -3668,7 +3668,7 @@
         <v>54</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3730,7 +3730,7 @@
         <v>57</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -3792,7 +3792,7 @@
         <v>58</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -3854,7 +3854,7 @@
         <v>59</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -3916,7 +3916,7 @@
         <v>60</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -3978,7 +3978,7 @@
         <v>61</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -4040,7 +4040,7 @@
         <v>62</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -4102,7 +4102,7 @@
         <v>63</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -4164,7 +4164,7 @@
         <v>64</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -4226,7 +4226,7 @@
         <v>65</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -4288,7 +4288,7 @@
         <v>66</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -4350,7 +4350,7 @@
         <v>67</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -4412,7 +4412,7 @@
         <v>68</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -4474,7 +4474,7 @@
         <v>69</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -4536,7 +4536,7 @@
         <v>70</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -4598,7 +4598,7 @@
         <v>71</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -4660,7 +4660,7 @@
         <v>72</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -4722,7 +4722,7 @@
         <v>73</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -4784,7 +4784,7 @@
         <v>74</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -4846,7 +4846,7 @@
         <v>75</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -4908,7 +4908,7 @@
         <v>76</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -4970,7 +4970,7 @@
         <v>77</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -5032,7 +5032,7 @@
         <v>78</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -5094,7 +5094,7 @@
         <v>79</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -5156,7 +5156,7 @@
         <v>80</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -5218,7 +5218,7 @@
         <v>81</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -5280,7 +5280,7 @@
         <v>82</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -5342,7 +5342,7 @@
         <v>83</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -5404,7 +5404,7 @@
         <v>84</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -5466,7 +5466,7 @@
         <v>85</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -5528,7 +5528,7 @@
         <v>86</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -5590,7 +5590,7 @@
         <v>87</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -5652,7 +5652,7 @@
         <v>88</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -5714,7 +5714,7 @@
         <v>89</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -5776,7 +5776,7 @@
         <v>90</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -5838,7 +5838,7 @@
         <v>92</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -5900,7 +5900,7 @@
         <v>95</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -5962,7 +5962,7 @@
         <v>96</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -6024,7 +6024,7 @@
         <v>97</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -6086,7 +6086,7 @@
         <v>98</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -6148,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -6210,7 +6210,7 @@
         <v>100</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -6272,7 +6272,7 @@
         <v>101</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -6334,7 +6334,7 @@
         <v>102</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -6396,7 +6396,7 @@
         <v>103</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -6458,7 +6458,7 @@
         <v>104</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -6520,7 +6520,7 @@
         <v>105</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -6582,7 +6582,7 @@
         <v>106</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -6644,7 +6644,7 @@
         <v>107</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -6706,7 +6706,7 @@
         <v>108</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -6768,7 +6768,7 @@
         <v>109</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -6830,7 +6830,7 @@
         <v>110</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -6892,7 +6892,7 @@
         <v>111</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -6954,7 +6954,7 @@
         <v>112</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -7016,7 +7016,7 @@
         <v>113</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -7078,7 +7078,7 @@
         <v>114</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -7140,7 +7140,7 @@
         <v>115</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -7202,7 +7202,7 @@
         <v>116</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -7264,7 +7264,7 @@
         <v>117</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -7326,7 +7326,7 @@
         <v>118</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -7388,7 +7388,7 @@
         <v>119</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -7450,7 +7450,7 @@
         <v>120</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -7512,7 +7512,7 @@
         <v>121</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -7574,7 +7574,7 @@
         <v>122</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -7636,7 +7636,7 @@
         <v>123</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -7698,7 +7698,7 @@
         <v>124</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -7760,7 +7760,7 @@
         <v>125</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -7822,7 +7822,7 @@
         <v>126</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -7884,7 +7884,7 @@
         <v>127</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -7946,7 +7946,7 @@
         <v>128</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -8008,7 +8008,7 @@
         <v>129</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -8070,7 +8070,7 @@
         <v>130</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -8132,7 +8132,7 @@
         <v>131</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -8194,7 +8194,7 @@
         <v>132</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -8256,7 +8256,7 @@
         <v>133</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -8318,7 +8318,7 @@
         <v>134</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -8380,7 +8380,7 @@
         <v>135</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -8442,7 +8442,7 @@
         <v>136</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E109">
         <v>100</v>
@@ -8504,7 +8504,7 @@
         <v>137</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E110">
         <v>100</v>
@@ -8566,7 +8566,7 @@
         <v>138</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -8628,7 +8628,7 @@
         <v>139</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -8690,7 +8690,7 @@
         <v>140</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -8752,7 +8752,7 @@
         <v>141</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -8814,7 +8814,7 @@
         <v>142</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E115">
         <v>100</v>
@@ -8876,7 +8876,7 @@
         <v>143</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -8938,7 +8938,7 @@
         <v>144</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -9000,7 +9000,7 @@
         <v>145</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -9062,7 +9062,7 @@
         <v>146</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -9124,7 +9124,7 @@
         <v>147</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -9186,7 +9186,7 @@
         <v>148</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -9248,7 +9248,7 @@
         <v>149</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E122">
         <v>100</v>
@@ -9310,7 +9310,7 @@
         <v>150</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -9372,7 +9372,7 @@
         <v>151</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -9434,7 +9434,7 @@
         <v>152</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -9496,7 +9496,7 @@
         <v>153</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -9558,7 +9558,7 @@
         <v>154</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -9620,7 +9620,7 @@
         <v>155</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E128">
         <v>100</v>
@@ -9682,7 +9682,7 @@
         <v>156</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -9744,7 +9744,7 @@
         <v>157</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -9806,7 +9806,7 @@
         <v>158</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -9868,7 +9868,7 @@
         <v>159</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -9930,7 +9930,7 @@
         <v>160</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -9992,7 +9992,7 @@
         <v>161</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -10054,7 +10054,7 @@
         <v>162</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -10116,7 +10116,7 @@
         <v>163</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -10178,7 +10178,7 @@
         <v>165</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E137">
         <v>100</v>
@@ -10240,7 +10240,7 @@
         <v>166</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E138">
         <v>100</v>
@@ -10302,7 +10302,7 @@
         <v>167</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E139">
         <v>100</v>
@@ -10364,7 +10364,7 @@
         <v>168</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E140">
         <v>100</v>
@@ -10426,7 +10426,7 @@
         <v>169</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E141">
         <v>100</v>
@@ -10488,7 +10488,7 @@
         <v>170</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E142">
         <v>100</v>
@@ -10550,7 +10550,7 @@
         <v>171</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E143">
         <v>100</v>
@@ -10612,7 +10612,7 @@
         <v>172</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E144">
         <v>100</v>
@@ -10674,7 +10674,7 @@
         <v>173</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E145">
         <v>100</v>
@@ -10736,7 +10736,7 @@
         <v>174</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E146">
         <v>100</v>
@@ -10798,7 +10798,7 @@
         <v>175</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E147">
         <v>100</v>
@@ -10860,7 +10860,7 @@
         <v>176</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E148">
         <v>100</v>
@@ -10922,7 +10922,7 @@
         <v>177</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E149">
         <v>100</v>
@@ -10984,7 +10984,7 @@
         <v>178</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E150">
         <v>100</v>
@@ -11046,7 +11046,7 @@
         <v>179</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -11108,7 +11108,7 @@
         <v>180</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E152">
         <v>100</v>
@@ -11170,7 +11170,7 @@
         <v>181</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E153">
         <v>100</v>
@@ -11232,7 +11232,7 @@
         <v>182</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E154">
         <v>100</v>
@@ -11294,7 +11294,7 @@
         <v>183</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E155">
         <v>100</v>
@@ -11356,7 +11356,7 @@
         <v>184</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E156">
         <v>100</v>
@@ -11418,7 +11418,7 @@
         <v>185</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E157">
         <v>100</v>
@@ -11480,7 +11480,7 @@
         <v>186</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E158">
         <v>100</v>
@@ -11542,7 +11542,7 @@
         <v>187</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E159">
         <v>100</v>
@@ -11604,7 +11604,7 @@
         <v>188</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E160">
         <v>100</v>
@@ -11666,7 +11666,7 @@
         <v>189</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E161">
         <v>100</v>
@@ -11728,7 +11728,7 @@
         <v>190</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E162">
         <v>100</v>
@@ -11790,7 +11790,7 @@
         <v>191</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E163">
         <v>100</v>
@@ -11852,7 +11852,7 @@
         <v>192</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E164">
         <v>100</v>
@@ -11914,7 +11914,7 @@
         <v>193</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E165">
         <v>100</v>
@@ -11976,7 +11976,7 @@
         <v>194</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E166">
         <v>100</v>
@@ -12038,7 +12038,7 @@
         <v>196</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E167">
         <v>100</v>
@@ -12100,7 +12100,7 @@
         <v>197</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E168">
         <v>100</v>
@@ -12162,7 +12162,7 @@
         <v>198</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E169">
         <v>100</v>
@@ -12224,7 +12224,7 @@
         <v>199</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E170">
         <v>100</v>
@@ -12286,7 +12286,7 @@
         <v>200</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -12348,7 +12348,7 @@
         <v>201</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E172">
         <v>100</v>
@@ -12410,7 +12410,7 @@
         <v>202</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E173">
         <v>100</v>
@@ -12472,7 +12472,7 @@
         <v>203</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E174">
         <v>100</v>
@@ -12534,7 +12534,7 @@
         <v>204</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E175">
         <v>100</v>
@@ -12596,7 +12596,7 @@
         <v>205</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E176">
         <v>100</v>
@@ -12658,7 +12658,7 @@
         <v>206</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E177">
         <v>100</v>
@@ -12720,7 +12720,7 @@
         <v>207</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E178">
         <v>100</v>
@@ -12782,7 +12782,7 @@
         <v>208</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E179">
         <v>100</v>
@@ -12844,7 +12844,7 @@
         <v>209</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E180">
         <v>100</v>
@@ -12906,7 +12906,7 @@
         <v>210</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -12968,7 +12968,7 @@
         <v>211</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E182">
         <v>100</v>
@@ -13030,7 +13030,7 @@
         <v>212</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E183">
         <v>100</v>
@@ -13092,7 +13092,7 @@
         <v>213</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -13154,7 +13154,7 @@
         <v>214</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E185">
         <v>100</v>
@@ -13216,7 +13216,7 @@
         <v>215</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E186">
         <v>100</v>
@@ -13278,7 +13278,7 @@
         <v>216</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E187">
         <v>100</v>
@@ -13340,7 +13340,7 @@
         <v>217</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E188">
         <v>100</v>
@@ -13402,7 +13402,7 @@
         <v>218</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E189">
         <v>100</v>
@@ -13464,7 +13464,7 @@
         <v>219</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E190">
         <v>100</v>
@@ -13526,7 +13526,7 @@
         <v>220</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -13588,7 +13588,7 @@
         <v>221</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E192">
         <v>100</v>
@@ -13650,7 +13650,7 @@
         <v>222</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E193">
         <v>100</v>
@@ -13712,7 +13712,7 @@
         <v>223</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E194">
         <v>100</v>
@@ -13774,7 +13774,7 @@
         <v>224</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E195">
         <v>100</v>
@@ -13836,7 +13836,7 @@
         <v>225</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E196">
         <v>100</v>
@@ -13898,7 +13898,7 @@
         <v>226</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E197">
         <v>100</v>
@@ -13960,7 +13960,7 @@
         <v>227</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E198">
         <v>100</v>
@@ -14022,7 +14022,7 @@
         <v>228</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E199">
         <v>100</v>
@@ -14084,7 +14084,7 @@
         <v>229</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E200">
         <v>100</v>
@@ -14146,7 +14146,7 @@
         <v>230</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -14208,7 +14208,7 @@
         <v>231</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E202">
         <v>100</v>
@@ -14270,7 +14270,7 @@
         <v>232</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E203">
         <v>100</v>
@@ -14332,7 +14332,7 @@
         <v>233</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E204">
         <v>100</v>
@@ -14394,7 +14394,7 @@
         <v>234</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E205">
         <v>100</v>
@@ -14456,7 +14456,7 @@
         <v>235</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E206">
         <v>100</v>
@@ -14518,7 +14518,7 @@
         <v>236</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E207">
         <v>100</v>
@@ -14580,7 +14580,7 @@
         <v>237</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E208">
         <v>100</v>
@@ -14642,7 +14642,7 @@
         <v>238</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E209">
         <v>100</v>
@@ -14704,7 +14704,7 @@
         <v>239</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E210">
         <v>100</v>
@@ -14766,7 +14766,7 @@
         <v>240</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E211">
         <v>100</v>
@@ -14828,7 +14828,7 @@
         <v>241</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E212">
         <v>100</v>
@@ -14890,7 +14890,7 @@
         <v>242</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E213">
         <v>100</v>
@@ -14952,7 +14952,7 @@
         <v>243</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E214">
         <v>100</v>
@@ -15014,7 +15014,7 @@
         <v>244</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E215">
         <v>100</v>
@@ -15076,7 +15076,7 @@
         <v>245</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E216">
         <v>100</v>
@@ -15138,7 +15138,7 @@
         <v>246</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E217">
         <v>100</v>
@@ -15200,7 +15200,7 @@
         <v>247</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E218">
         <v>100</v>
@@ -15262,7 +15262,7 @@
         <v>248</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E219">
         <v>100</v>
@@ -15324,7 +15324,7 @@
         <v>249</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E220">
         <v>100</v>
@@ -15386,7 +15386,7 @@
         <v>250</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E221">
         <v>100</v>
@@ -15448,7 +15448,7 @@
         <v>251</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E222">
         <v>100</v>
@@ -15510,7 +15510,7 @@
         <v>252</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E223">
         <v>100</v>
@@ -15572,7 +15572,7 @@
         <v>253</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E224">
         <v>100</v>
@@ -15634,7 +15634,7 @@
         <v>254</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E225">
         <v>100</v>
@@ -15696,7 +15696,7 @@
         <v>255</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E226">
         <v>100</v>

--- a/DAT/input/corp_bond_portfolio.xlsx
+++ b/DAT/input/corp_bond_portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{78ED3200-74A1-44DD-AD16-D4E3F06A61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34647251-048F-4983-9C25-793BA18CE2B6}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{78ED3200-74A1-44DD-AD16-D4E3F06A61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB17B25F-8772-4288-A4EE-A96F1ED4C70A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1427,6 +1427,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1726,13 +1730,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
